--- a/src/progress.xlsx
+++ b/src/progress.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="O:\projects\blog\src\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{946A5246-76A9-4A14-9FB1-75767F64D1D9}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{E43234B0-03A9-4F51-BCD0-0AB891747113}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="21150" windowHeight="6900" xr2:uid="{15C6BBFE-DC83-4B81-8992-4BD7D84477C4}"/>
   </bookViews>
@@ -1022,8 +1022,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CCA4D7CE-4B88-4109-AB6F-78CD06166CA1}">
   <dimension ref="A1:A40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="A23" sqref="A23"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="A24" sqref="A24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
